--- a/choiceset_30.xlsx
+++ b/choiceset_30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/rejection_risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BB473E-C7EF-3449-A56F-03A0EB2DDF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D7DFC-98D0-C04A-818D-C9D2D7934B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="560" windowWidth="20380" windowHeight="16940" xr2:uid="{E15612F3-A512-0C40-9D40-3CEEBC727A0B}"/>
+    <workbookView xWindow="2100" yWindow="140" windowWidth="20380" windowHeight="16940" xr2:uid="{E15612F3-A512-0C40-9D40-3CEEBC727A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="gain only generation" sheetId="1" r:id="rId1"/>
@@ -3265,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27200891-336F-B345-AC84-3456DD08CA54}">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E13" sqref="E7:E13"/>
+    <sheetView tabSelected="1" topLeftCell="I37" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52:R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3377,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E9" si="0">B$2+E2</f>
+        <f t="shared" ref="E3:E6" si="0">B$2+E2</f>
         <v>0.35</v>
       </c>
       <c r="J3" t="s">
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E27" si="4">E9+B$3</f>
+        <f t="shared" ref="E10:E19" si="4">E9+B$3</f>
         <v>0.62</v>
       </c>
       <c r="J10" t="s">
@@ -4067,7 +4067,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" ref="E24:E32" si="6">E23+B$4</f>
+        <f t="shared" ref="E24:E31" si="6">E23+B$4</f>
         <v>1.1400000000000003</v>
       </c>
       <c r="O24" s="13">
@@ -5145,7 +5145,7 @@
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117">
         <f t="shared" ref="B117:B145" ca="1" si="9">RAND()</f>
-        <v>0.39245444252718975</v>
+        <v>0.17245369012194467</v>
       </c>
       <c r="C117">
         <v>1.5000000000000007</v>
@@ -5178,7 +5178,7 @@
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118">
         <f t="shared" ca="1" si="9"/>
-        <v>0.91936998577773321</v>
+        <v>0.67063571811081413</v>
       </c>
       <c r="C118">
         <v>0.3</v>
@@ -5219,7 +5219,7 @@
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119">
         <f t="shared" ca="1" si="9"/>
-        <v>9.351969495171264E-2</v>
+        <v>0.33224314327980176</v>
       </c>
       <c r="C119">
         <v>0.6</v>
@@ -5260,7 +5260,7 @@
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120">
         <f t="shared" ca="1" si="9"/>
-        <v>4.1450639089548491E-2</v>
+        <v>0.5513573514387905</v>
       </c>
       <c r="C120">
         <v>1.2500000000000004</v>
@@ -5301,7 +5301,7 @@
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121">
         <f t="shared" ca="1" si="9"/>
-        <v>0.80812227098965728</v>
+        <v>0.31529345893325778</v>
       </c>
       <c r="C121">
         <v>0.44999999999999996</v>
@@ -5342,7 +5342,7 @@
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122">
         <f t="shared" ca="1" si="9"/>
-        <v>0.6393340653276065</v>
+        <v>0.98170137880998887</v>
       </c>
       <c r="C122">
         <v>0.35</v>
@@ -5383,7 +5383,7 @@
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19812216044418218</v>
+        <v>0.71571996188996834</v>
       </c>
       <c r="C123">
         <v>0.49999999999999994</v>
@@ -5424,7 +5424,7 @@
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0760049109191159E-2</v>
+        <v>0.37650641571881249</v>
       </c>
       <c r="C124">
         <v>0.65</v>
@@ -5465,7 +5465,7 @@
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27583767595721642</v>
+        <v>0.42192581895860204</v>
       </c>
       <c r="C125">
         <v>0.39999999999999997</v>
@@ -5506,7 +5506,7 @@
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126">
         <f t="shared" ca="1" si="9"/>
-        <v>0.64154683046135308</v>
+        <v>0.94139007529883867</v>
       </c>
       <c r="C126">
         <v>0.95000000000000029</v>
@@ -5550,7 +5550,7 @@
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42843394518723765</v>
+        <v>0.94218150649545185</v>
       </c>
       <c r="C127">
         <v>1.4500000000000006</v>
@@ -5603,7 +5603,7 @@
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3180884184689946</v>
+        <v>0.77496357812328776</v>
       </c>
       <c r="C128">
         <v>1.3500000000000005</v>
@@ -5660,7 +5660,7 @@
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129">
         <f t="shared" ca="1" si="9"/>
-        <v>0.1657648527725949</v>
+        <v>0.26547993844140994</v>
       </c>
       <c r="C129">
         <v>1.6000000000000008</v>
@@ -5717,7 +5717,7 @@
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130">
         <f t="shared" ca="1" si="9"/>
-        <v>0.87445930243601822</v>
+        <v>0.76738153128521913</v>
       </c>
       <c r="C130">
         <v>1.1500000000000004</v>
@@ -5774,7 +5774,7 @@
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18253977434282787</v>
+        <v>0.7458836190061835</v>
       </c>
       <c r="C131">
         <v>0.8500000000000002</v>
@@ -5831,7 +5831,7 @@
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132">
         <f t="shared" ca="1" si="9"/>
-        <v>0.67815209857312653</v>
+        <v>0.18521018246848864</v>
       </c>
       <c r="C132">
         <v>1.5500000000000007</v>
@@ -5888,7 +5888,7 @@
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36344585820097675</v>
+        <v>0.97325999442940192</v>
       </c>
       <c r="C133">
         <v>1.7000000000000008</v>
@@ -5945,7 +5945,7 @@
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134">
         <f t="shared" ca="1" si="9"/>
-        <v>0.5086541128575095</v>
+        <v>0.70368202846754047</v>
       </c>
       <c r="C134">
         <v>1.0500000000000003</v>
@@ -6002,7 +6002,7 @@
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135">
         <f t="shared" ca="1" si="9"/>
-        <v>0.5639250744186779</v>
+        <v>0.24440732443256274</v>
       </c>
       <c r="C135">
         <v>1.2000000000000004</v>
@@ -6059,7 +6059,7 @@
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B136">
         <f t="shared" ca="1" si="9"/>
-        <v>0.16978114337788441</v>
+        <v>7.701555996134124E-2</v>
       </c>
       <c r="C136">
         <v>0.90000000000000024</v>
@@ -6116,7 +6116,7 @@
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B137">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59456036528532641</v>
+        <v>0.4853684057767591</v>
       </c>
       <c r="C137">
         <v>1.4000000000000006</v>
@@ -6173,7 +6173,7 @@
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B138">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10033804725755724</v>
+        <v>0.99993047935480861</v>
       </c>
       <c r="C138">
         <v>0.70000000000000007</v>
@@ -6230,7 +6230,7 @@
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B139">
         <f t="shared" ca="1" si="9"/>
-        <v>0.92839509589399283</v>
+        <v>0.13811430354761278</v>
       </c>
       <c r="C139">
         <v>1.1000000000000003</v>
@@ -6287,7 +6287,7 @@
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B140">
         <f t="shared" ca="1" si="9"/>
-        <v>0.22466123602596799</v>
+        <v>0.25714006859800143</v>
       </c>
       <c r="C140">
         <v>0.54999999999999993</v>
@@ -6344,7 +6344,7 @@
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B141">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48490126528983113</v>
+        <v>0.73065151079747515</v>
       </c>
       <c r="C141">
         <v>1.3000000000000005</v>
@@ -6401,7 +6401,7 @@
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142">
         <f t="shared" ca="1" si="9"/>
-        <v>0.77550182541105239</v>
+        <v>0.27579529922835855</v>
       </c>
       <c r="C142">
         <v>1.0000000000000002</v>
@@ -6458,7 +6458,7 @@
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143">
         <f t="shared" ca="1" si="9"/>
-        <v>0.95953590716814607</v>
+        <v>0.31579404484599993</v>
       </c>
       <c r="C143">
         <v>0.75000000000000011</v>
@@ -6515,7 +6515,7 @@
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144">
         <f t="shared" ca="1" si="9"/>
-        <v>0.21156528561552879</v>
+        <v>1.3286918149672422E-2</v>
       </c>
       <c r="C144">
         <v>1.6500000000000008</v>
@@ -6572,7 +6572,7 @@
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B145">
         <f t="shared" ca="1" si="9"/>
-        <v>0.8788843005328153</v>
+        <v>0.92324250522535001</v>
       </c>
       <c r="C145">
         <v>0.80000000000000016</v>

--- a/choiceset_30.xlsx
+++ b/choiceset_30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/rejection_risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D7DFC-98D0-C04A-818D-C9D2D7934B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0607E9-1B8F-A446-B9F9-5941F3EFAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="140" windowWidth="20380" windowHeight="16940" xr2:uid="{E15612F3-A512-0C40-9D40-3CEEBC727A0B}"/>
+    <workbookView xWindow="3300" yWindow="540" windowWidth="20380" windowHeight="16940" xr2:uid="{E15612F3-A512-0C40-9D40-3CEEBC727A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="gain only generation" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <t>risky_loss</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>certain</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1060,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>safe</c:v>
+                  <c:v>certain</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3265,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27200891-336F-B345-AC84-3456DD08CA54}">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I37" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52:R61"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5145,7 +5145,7 @@
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117">
         <f t="shared" ref="B117:B145" ca="1" si="9">RAND()</f>
-        <v>0.17245369012194467</v>
+        <v>0.9905726552316868</v>
       </c>
       <c r="C117">
         <v>1.5000000000000007</v>
@@ -5178,7 +5178,7 @@
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118">
         <f t="shared" ca="1" si="9"/>
-        <v>0.67063571811081413</v>
+        <v>0.90075459518473788</v>
       </c>
       <c r="C118">
         <v>0.3</v>
@@ -5219,7 +5219,7 @@
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119">
         <f t="shared" ca="1" si="9"/>
-        <v>0.33224314327980176</v>
+        <v>9.1713692689305404E-2</v>
       </c>
       <c r="C119">
         <v>0.6</v>
@@ -5260,7 +5260,7 @@
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120">
         <f t="shared" ca="1" si="9"/>
-        <v>0.5513573514387905</v>
+        <v>0.98817875023831847</v>
       </c>
       <c r="C120">
         <v>1.2500000000000004</v>
@@ -5301,7 +5301,7 @@
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31529345893325778</v>
+        <v>0.29887176505251234</v>
       </c>
       <c r="C121">
         <v>0.44999999999999996</v>
@@ -5342,7 +5342,7 @@
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122">
         <f t="shared" ca="1" si="9"/>
-        <v>0.98170137880998887</v>
+        <v>0.43496591244943794</v>
       </c>
       <c r="C122">
         <v>0.35</v>
@@ -5383,7 +5383,7 @@
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123">
         <f t="shared" ca="1" si="9"/>
-        <v>0.71571996188996834</v>
+        <v>0.18037228713203934</v>
       </c>
       <c r="C123">
         <v>0.49999999999999994</v>
@@ -5424,7 +5424,7 @@
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37650641571881249</v>
+        <v>0.88939260920819496</v>
       </c>
       <c r="C124">
         <v>0.65</v>
@@ -5465,7 +5465,7 @@
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42192581895860204</v>
+        <v>4.1786765727662489E-2</v>
       </c>
       <c r="C125">
         <v>0.39999999999999997</v>
@@ -5506,7 +5506,7 @@
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126">
         <f t="shared" ca="1" si="9"/>
-        <v>0.94139007529883867</v>
+        <v>0.51883545335407677</v>
       </c>
       <c r="C126">
         <v>0.95000000000000029</v>
@@ -5550,7 +5550,7 @@
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127">
         <f t="shared" ca="1" si="9"/>
-        <v>0.94218150649545185</v>
+        <v>0.11228654910407421</v>
       </c>
       <c r="C127">
         <v>1.4500000000000006</v>
@@ -5603,7 +5603,7 @@
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128">
         <f t="shared" ca="1" si="9"/>
-        <v>0.77496357812328776</v>
+        <v>2.3525239706918444E-2</v>
       </c>
       <c r="C128">
         <v>1.3500000000000005</v>
@@ -5660,7 +5660,7 @@
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26547993844140994</v>
+        <v>0.56340909898025737</v>
       </c>
       <c r="C129">
         <v>1.6000000000000008</v>
@@ -5717,7 +5717,7 @@
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130">
         <f t="shared" ca="1" si="9"/>
-        <v>0.76738153128521913</v>
+        <v>0.53482338120221207</v>
       </c>
       <c r="C130">
         <v>1.1500000000000004</v>
@@ -5774,7 +5774,7 @@
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131">
         <f t="shared" ca="1" si="9"/>
-        <v>0.7458836190061835</v>
+        <v>0.2091191325952243</v>
       </c>
       <c r="C131">
         <v>0.8500000000000002</v>
@@ -5831,7 +5831,7 @@
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18521018246848864</v>
+        <v>0.47864464824888953</v>
       </c>
       <c r="C132">
         <v>1.5500000000000007</v>
@@ -5888,7 +5888,7 @@
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133">
         <f t="shared" ca="1" si="9"/>
-        <v>0.97325999442940192</v>
+        <v>0.95032100378039308</v>
       </c>
       <c r="C133">
         <v>1.7000000000000008</v>
@@ -5945,7 +5945,7 @@
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134">
         <f t="shared" ca="1" si="9"/>
-        <v>0.70368202846754047</v>
+        <v>0.29255259204704942</v>
       </c>
       <c r="C134">
         <v>1.0500000000000003</v>
@@ -6002,7 +6002,7 @@
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24440732443256274</v>
+        <v>0.28912352301407829</v>
       </c>
       <c r="C135">
         <v>1.2000000000000004</v>
@@ -6059,7 +6059,7 @@
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B136">
         <f t="shared" ca="1" si="9"/>
-        <v>7.701555996134124E-2</v>
+        <v>0.38633331266984838</v>
       </c>
       <c r="C136">
         <v>0.90000000000000024</v>
@@ -6116,7 +6116,7 @@
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B137">
         <f t="shared" ca="1" si="9"/>
-        <v>0.4853684057767591</v>
+        <v>0.93418619871747133</v>
       </c>
       <c r="C137">
         <v>1.4000000000000006</v>
@@ -6173,7 +6173,7 @@
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B138">
         <f t="shared" ca="1" si="9"/>
-        <v>0.99993047935480861</v>
+        <v>0.21082513425154326</v>
       </c>
       <c r="C138">
         <v>0.70000000000000007</v>
@@ -6230,7 +6230,7 @@
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B139">
         <f t="shared" ca="1" si="9"/>
-        <v>0.13811430354761278</v>
+        <v>0.75714965212329532</v>
       </c>
       <c r="C139">
         <v>1.1000000000000003</v>
@@ -6287,7 +6287,7 @@
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B140">
         <f t="shared" ca="1" si="9"/>
-        <v>0.25714006859800143</v>
+        <v>0.25823829907219464</v>
       </c>
       <c r="C140">
         <v>0.54999999999999993</v>
@@ -6344,7 +6344,7 @@
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B141">
         <f t="shared" ca="1" si="9"/>
-        <v>0.73065151079747515</v>
+        <v>0.81386857600013196</v>
       </c>
       <c r="C141">
         <v>1.3000000000000005</v>
@@ -6401,7 +6401,7 @@
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27579529922835855</v>
+        <v>0.72703436331508897</v>
       </c>
       <c r="C142">
         <v>1.0000000000000002</v>
@@ -6458,7 +6458,7 @@
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31579404484599993</v>
+        <v>0.51493469371174472</v>
       </c>
       <c r="C143">
         <v>0.75000000000000011</v>
@@ -6515,7 +6515,7 @@
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3286918149672422E-2</v>
+        <v>0.15989467050453166</v>
       </c>
       <c r="C144">
         <v>1.6500000000000008</v>
@@ -6572,7 +6572,7 @@
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B145">
         <f t="shared" ca="1" si="9"/>
-        <v>0.92324250522535001</v>
+        <v>0.82694833872599083</v>
       </c>
       <c r="C145">
         <v>0.80000000000000016</v>

--- a/choiceset_30.xlsx
+++ b/choiceset_30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordansiegel/Documents/GitHub/rejection_risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0607E9-1B8F-A446-B9F9-5941F3EFAE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885F2AB9-2A58-1347-BCE3-9BDD70CD0744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="540" windowWidth="20380" windowHeight="16940" xr2:uid="{E15612F3-A512-0C40-9D40-3CEEBC727A0B}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t xml:space="preserve">rho = 1.25 </t>
   </si>
   <si>
-    <t>EV LEVEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">(doubled the 1) </t>
   </si>
   <si>
@@ -309,6 +306,9 @@
   </si>
   <si>
     <t>certain</t>
+  </si>
+  <si>
+    <t>ev_level</t>
   </si>
 </sst>
 </file>
@@ -979,6 +979,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -986,7 +987,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1735,6 +1735,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1742,7 +1743,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3266,7 +3266,7 @@
   <dimension ref="A1:X163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3299,19 +3299,19 @@
         <v>24</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="P1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="S1" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V1" t="s">
         <v>16</v>
@@ -3460,7 +3460,7 @@
         <v>18</v>
       </c>
       <c r="X4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -3672,7 +3672,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="E52" s="5"/>
       <c r="O52" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P52" s="13">
         <v>10.345781199999999</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="57" spans="4:19" x14ac:dyDescent="0.2">
       <c r="O57" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P57" s="13">
         <v>0</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="59" spans="4:19" x14ac:dyDescent="0.2">
       <c r="L59" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O59" s="15"/>
       <c r="P59" s="13">
@@ -4833,7 +4833,7 @@
     </row>
     <row r="60" spans="4:19" x14ac:dyDescent="0.2">
       <c r="L60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M60">
         <v>3.5</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="61" spans="4:19" x14ac:dyDescent="0.2">
       <c r="L61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M61">
         <v>1</v>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="62" spans="4:19" x14ac:dyDescent="0.2">
       <c r="L62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M62">
         <v>1</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="63" spans="4:19" x14ac:dyDescent="0.2">
       <c r="L63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M63">
         <v>2</v>
@@ -4891,14 +4891,14 @@
     </row>
     <row r="64" spans="4:19" x14ac:dyDescent="0.2">
       <c r="L64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M64" s="14">
         <f>SUM(M60:M63)</f>
         <v>7.5</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P64" s="3" t="e">
         <f>MAX(P2:P61)</f>
@@ -4915,13 +4915,13 @@
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M65">
         <v>50</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P65" s="3" t="e">
         <f>MIN(P2:P61)</f>
@@ -4938,39 +4938,39 @@
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L66" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M66">
         <f>M65*M64/60</f>
         <v>6.25</v>
       </c>
       <c r="N66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L68" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P68" t="s">
+        <v>52</v>
+      </c>
+      <c r="R68" t="s">
         <v>53</v>
-      </c>
-      <c r="R68" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="69" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M69">
         <v>4</v>
       </c>
       <c r="O69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P69">
         <v>10</v>
@@ -4981,7 +4981,7 @@
     </row>
     <row r="70" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M70">
         <v>30</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="71" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M71">
         <f>M70*M69</f>
@@ -5001,17 +5001,17 @@
     </row>
     <row r="72" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L72" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M72">
         <f>M71*M66/60</f>
         <v>12.5</v>
       </c>
       <c r="N72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P72">
         <v>10</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="R72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.2">
@@ -5030,18 +5030,18 @@
     </row>
     <row r="74" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L74" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L75" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M75">
         <v>15</v>
       </c>
       <c r="N75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P75">
         <v>7</v>
@@ -5050,19 +5050,19 @@
         <v>5</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L76" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M76">
         <f>200*(1+1)/60</f>
         <v>6.666666666666667</v>
       </c>
       <c r="N76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P76">
         <v>5</v>
@@ -5070,13 +5070,13 @@
     </row>
     <row r="77" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L77" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M77">
         <v>12</v>
       </c>
       <c r="N77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="12:18" x14ac:dyDescent="0.2">
@@ -5087,7 +5087,7 @@
         <v>6</v>
       </c>
       <c r="R78" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="12:18" x14ac:dyDescent="0.2">
@@ -5097,14 +5097,14 @@
     </row>
     <row r="80" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M80">
         <f>M72+M66+SUM(M75:M77)</f>
         <v>52.416666666666671</v>
       </c>
       <c r="N80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="16:18" x14ac:dyDescent="0.2">
@@ -5115,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="R81" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="16:18" x14ac:dyDescent="0.2">
@@ -5125,7 +5125,7 @@
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D114" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E114" s="3">
         <v>0.25</v>
@@ -5145,7 +5145,7 @@
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117">
         <f t="shared" ref="B117:B145" ca="1" si="9">RAND()</f>
-        <v>0.9905726552316868</v>
+        <v>1.0748234434400095E-2</v>
       </c>
       <c r="C117">
         <v>1.5000000000000007</v>
@@ -5178,7 +5178,7 @@
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118">
         <f t="shared" ca="1" si="9"/>
-        <v>0.90075459518473788</v>
+        <v>0.42025474631500448</v>
       </c>
       <c r="C118">
         <v>0.3</v>
@@ -5219,7 +5219,7 @@
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119">
         <f t="shared" ca="1" si="9"/>
-        <v>9.1713692689305404E-2</v>
+        <v>0.36279266653793474</v>
       </c>
       <c r="C119">
         <v>0.6</v>
@@ -5260,7 +5260,7 @@
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120">
         <f t="shared" ca="1" si="9"/>
-        <v>0.98817875023831847</v>
+        <v>0.95249051558955733</v>
       </c>
       <c r="C120">
         <v>1.2500000000000004</v>
@@ -5301,7 +5301,7 @@
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29887176505251234</v>
+        <v>9.164767855113054E-2</v>
       </c>
       <c r="C121">
         <v>0.44999999999999996</v>
@@ -5342,7 +5342,7 @@
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43496591244943794</v>
+        <v>0.44545559344801633</v>
       </c>
       <c r="C122">
         <v>0.35</v>
@@ -5383,7 +5383,7 @@
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18037228713203934</v>
+        <v>5.9912363474080577E-3</v>
       </c>
       <c r="C123">
         <v>0.49999999999999994</v>
@@ -5424,7 +5424,7 @@
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124">
         <f t="shared" ca="1" si="9"/>
-        <v>0.88939260920819496</v>
+        <v>0.65613797331509249</v>
       </c>
       <c r="C124">
         <v>0.65</v>
@@ -5465,7 +5465,7 @@
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125">
         <f t="shared" ca="1" si="9"/>
-        <v>4.1786765727662489E-2</v>
+        <v>0.99719132313913728</v>
       </c>
       <c r="C125">
         <v>0.39999999999999997</v>
@@ -5506,7 +5506,7 @@
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51883545335407677</v>
+        <v>0.69292170491708904</v>
       </c>
       <c r="C126">
         <v>0.95000000000000029</v>
@@ -5550,7 +5550,7 @@
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11228654910407421</v>
+        <v>0.56730047960340768</v>
       </c>
       <c r="C127">
         <v>1.4500000000000006</v>
@@ -5603,7 +5603,7 @@
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3525239706918444E-2</v>
+        <v>0.94958492766048519</v>
       </c>
       <c r="C128">
         <v>1.3500000000000005</v>
@@ -5660,7 +5660,7 @@
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B129">
         <f t="shared" ca="1" si="9"/>
-        <v>0.56340909898025737</v>
+        <v>0.54702252052234657</v>
       </c>
       <c r="C129">
         <v>1.6000000000000008</v>
@@ -5717,7 +5717,7 @@
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53482338120221207</v>
+        <v>0.16575332144144572</v>
       </c>
       <c r="C130">
         <v>1.1500000000000004</v>
@@ -5774,7 +5774,7 @@
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B131">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2091191325952243</v>
+        <v>0.8381454752634202</v>
       </c>
       <c r="C131">
         <v>0.8500000000000002</v>
@@ -5831,7 +5831,7 @@
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B132">
         <f t="shared" ca="1" si="9"/>
-        <v>0.47864464824888953</v>
+        <v>0.54895194970954198</v>
       </c>
       <c r="C132">
         <v>1.5500000000000007</v>
@@ -5888,7 +5888,7 @@
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B133">
         <f t="shared" ca="1" si="9"/>
-        <v>0.95032100378039308</v>
+        <v>0.26703316845806579</v>
       </c>
       <c r="C133">
         <v>1.7000000000000008</v>
@@ -5945,7 +5945,7 @@
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B134">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29255259204704942</v>
+        <v>0.6982016710879293</v>
       </c>
       <c r="C134">
         <v>1.0500000000000003</v>
@@ -6002,7 +6002,7 @@
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B135">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28912352301407829</v>
+        <v>0.36937455949402342</v>
       </c>
       <c r="C135">
         <v>1.2000000000000004</v>
@@ -6059,7 +6059,7 @@
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B136">
         <f t="shared" ca="1" si="9"/>
-        <v>0.38633331266984838</v>
+        <v>0.78116126468012437</v>
       </c>
       <c r="C136">
         <v>0.90000000000000024</v>
@@ -6116,7 +6116,7 @@
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B137">
         <f t="shared" ca="1" si="9"/>
-        <v>0.93418619871747133</v>
+        <v>0.65571045442078491</v>
       </c>
       <c r="C137">
         <v>1.4000000000000006</v>
@@ -6173,7 +6173,7 @@
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B138">
         <f t="shared" ca="1" si="9"/>
-        <v>0.21082513425154326</v>
+        <v>0.61604465772618133</v>
       </c>
       <c r="C138">
         <v>0.70000000000000007</v>
@@ -6230,7 +6230,7 @@
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B139">
         <f t="shared" ca="1" si="9"/>
-        <v>0.75714965212329532</v>
+        <v>0.49387501872277129</v>
       </c>
       <c r="C139">
         <v>1.1000000000000003</v>
@@ -6287,7 +6287,7 @@
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B140">
         <f t="shared" ca="1" si="9"/>
-        <v>0.25823829907219464</v>
+        <v>0.29937687631763044</v>
       </c>
       <c r="C140">
         <v>0.54999999999999993</v>
@@ -6344,7 +6344,7 @@
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B141">
         <f t="shared" ca="1" si="9"/>
-        <v>0.81386857600013196</v>
+        <v>0.5016013847626315</v>
       </c>
       <c r="C141">
         <v>1.3000000000000005</v>
@@ -6401,7 +6401,7 @@
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B142">
         <f t="shared" ca="1" si="9"/>
-        <v>0.72703436331508897</v>
+        <v>0.87407441014972764</v>
       </c>
       <c r="C142">
         <v>1.0000000000000002</v>
@@ -6458,7 +6458,7 @@
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B143">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51493469371174472</v>
+        <v>0.35407526971758263</v>
       </c>
       <c r="C143">
         <v>0.75000000000000011</v>
@@ -6515,7 +6515,7 @@
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B144">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15989467050453166</v>
+        <v>0.63848711391566104</v>
       </c>
       <c r="C144">
         <v>1.6500000000000008</v>
@@ -6572,7 +6572,7 @@
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B145">
         <f t="shared" ca="1" si="9"/>
-        <v>0.82694833872599083</v>
+        <v>0.51976452663831785</v>
       </c>
       <c r="C145">
         <v>0.80000000000000016</v>
@@ -6648,10 +6648,10 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E147" s="10">
         <f>COUNTIF(F117:F145,"2")</f>
@@ -6684,10 +6684,10 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E148" s="11">
         <f>COUNTIF(F118:F145,-2)</f>
@@ -6720,10 +6720,10 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E149">
         <f>COUNTIF(F118:F145,0)</f>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L150">
         <f t="shared" si="21"/>
@@ -6777,21 +6777,21 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E151">
         <f>COUNTIF(E117:E145,-1)</f>
         <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H151">
         <f>COUNTIF(H117:H145,-1)</f>
         <v>18</v>
       </c>
       <c r="J151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L151">
         <f t="shared" si="21"/>
@@ -6812,21 +6812,21 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E152">
         <f>COUNTIF(E117:E145,1)</f>
         <v>10</v>
       </c>
       <c r="G152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H152">
         <f>COUNTIF(H117:H145,1)</f>
         <v>11</v>
       </c>
       <c r="J152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L152">
         <f t="shared" si="21"/>
@@ -6847,21 +6847,21 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E153">
         <f>E152/(SUM(E151:E152))</f>
         <v>0.34482758620689657</v>
       </c>
       <c r="G153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H153">
         <f>H152/(SUM(H151:H152))</f>
         <v>0.37931034482758619</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L153">
         <f t="shared" si="21"/>
@@ -6939,17 +6939,17 @@
     </row>
     <row r="161" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -6974,16 +6974,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
